--- a/FORMATOS DE RESIDENCIA/RECIBIDOS/FORMATO RESI/formato de solicitud de residencias-2020 (1).xlsx
+++ b/FORMATOS DE RESIDENCIA/RECIBIDOS/FORMATO RESI/formato de solicitud de residencias-2020 (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marisol Altamirano\Desktop\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/FORMATOS DE RESIDENCIA/RECIBIDOS/FORMATO RESI/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_3EA69D14582122612D8A081B56DF341C345126FD" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FB963B21-B721-481C-85B7-F34B2DE37E74}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Based Testing" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Cuenta de correo</t>
   </si>
@@ -164,12 +165,15 @@
   </si>
   <si>
     <t>NOMBRE Y FIRMA</t>
+  </si>
+  <si>
+    <t>{{ url('/puntoVenta/altaSucursal/` + Suc_Inac[t].id + `')}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,6 +551,120 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -556,9 +674,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -576,117 +691,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,7 +726,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectángulo 2"/>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -843,6 +853,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -878,6 +905,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1053,13 +1097,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F40"/>
+  <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -1075,30 +1119,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
@@ -1107,21 +1151,21 @@
       <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="2:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="17" t="s">
         <v>9</v>
       </c>
@@ -1133,32 +1177,32 @@
       <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
     </row>
     <row r="10" spans="2:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
     </row>
     <row r="11" spans="2:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="69"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="19" t="s">
         <v>18</v>
       </c>
@@ -1176,16 +1220,16 @@
       <c r="D12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="74"/>
+      <c r="F12" s="66"/>
     </row>
     <row r="13" spans="2:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="14" t="s">
         <v>42</v>
       </c>
@@ -1206,41 +1250,41 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
     </row>
     <row r="16" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
     </row>
     <row r="19" spans="2:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
     </row>
     <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
@@ -1252,27 +1296,27 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="65"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
@@ -1284,49 +1328,49 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
     </row>
     <row r="29" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="65"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
     </row>
     <row r="30" spans="2:6" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="27"/>
     </row>
     <row r="31" spans="2:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1336,10 +1380,10 @@
       <c r="C31" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="35"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="30" t="s">
         <v>41</v>
       </c>
@@ -1351,10 +1395,10 @@
       <c r="C32" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="35"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="30" t="s">
         <v>41</v>
       </c>
@@ -1366,10 +1410,10 @@
       <c r="C33" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="35"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="31" t="s">
         <v>41</v>
       </c>
@@ -1381,22 +1425,22 @@
       <c r="C34" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="78"/>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="43" t="s">
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="44"/>
+      <c r="F35" s="35"/>
     </row>
     <row r="36" spans="2:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
@@ -1416,41 +1460,53 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="32" t="s">
+      <c r="D37" s="73"/>
+      <c r="E37" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="70" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
     </row>
     <row r="39" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C43" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="C2:F5"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="E35:F35"/>
@@ -1467,13 +1523,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="D34:F34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.42" bottom="0.7" header="0" footer="0"/>
   <pageSetup scale="82" orientation="portrait" r:id="rId1"/>
